--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H2">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I2">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J2">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.1122635</v>
+        <v>4.138389</v>
       </c>
       <c r="N2">
-        <v>6.224527</v>
+        <v>8.276778</v>
       </c>
       <c r="O2">
-        <v>0.2822077032432218</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P2">
-        <v>0.2312074682901326</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q2">
-        <v>13.9906794898265</v>
+        <v>69.9699589303095</v>
       </c>
       <c r="R2">
-        <v>55.962717959306</v>
+        <v>279.879835721238</v>
       </c>
       <c r="S2">
-        <v>0.03595626356624027</v>
+        <v>0.08047917754142279</v>
       </c>
       <c r="T2">
-        <v>0.02244811470492008</v>
+        <v>0.05424767722613513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H3">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I3">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J3">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.013819333333334</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>9.041458</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2732811768830042</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P3">
-        <v>0.3358411994729184</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q3">
-        <v>13.54813958808734</v>
+        <v>50.95625736891966</v>
       </c>
       <c r="R3">
-        <v>81.28883752852401</v>
+        <v>305.737544213518</v>
       </c>
       <c r="S3">
-        <v>0.03481892914605845</v>
+        <v>0.05860969116366435</v>
       </c>
       <c r="T3">
-        <v>0.03260708585306439</v>
+        <v>0.05925954462444893</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H4">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I4">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J4">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01648566666666667</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N4">
-        <v>0.049457</v>
+        <v>0.014572</v>
       </c>
       <c r="O4">
-        <v>0.001494854830393808</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P4">
-        <v>0.001837059708990754</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q4">
-        <v>0.07410866030766668</v>
+        <v>0.08212553576866667</v>
       </c>
       <c r="R4">
-        <v>0.444651961846</v>
+        <v>0.4927532146120001</v>
       </c>
       <c r="S4">
-        <v>0.0001904604079095001</v>
+        <v>9.446047525044269E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001783615701178953</v>
+        <v>9.55078356021197E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H5">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I5">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J5">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.0507295</v>
+        <v>3.609679</v>
       </c>
       <c r="N5">
-        <v>6.101459</v>
+        <v>7.219358</v>
       </c>
       <c r="O5">
-        <v>0.2766280443193008</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P5">
-        <v>0.226636158581374</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q5">
-        <v>13.7140632998005</v>
+        <v>61.0307758361045</v>
       </c>
       <c r="R5">
-        <v>54.85625319920201</v>
+        <v>244.123103344418</v>
       </c>
       <c r="S5">
-        <v>0.03524535566198183</v>
+        <v>0.07019736354135521</v>
       </c>
       <c r="T5">
-        <v>0.02200428265462854</v>
+        <v>0.04731713265281688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H6">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I6">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J6">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.763754333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N6">
-        <v>5.291263</v>
+        <v>0.000111</v>
       </c>
       <c r="O6">
-        <v>0.1599302435334539</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P6">
-        <v>0.1965417649063538</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q6">
-        <v>7.928673641052334</v>
+        <v>0.0006255788135</v>
       </c>
       <c r="R6">
-        <v>47.572041846314</v>
+        <v>0.003753472881</v>
       </c>
       <c r="S6">
-        <v>0.02037681439101532</v>
+        <v>7.195383442766359E-07</v>
       </c>
       <c r="T6">
-        <v>0.01908239433420396</v>
+        <v>7.275164529121113E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.495339</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H7">
-        <v>8.990678000000001</v>
+        <v>1.389289</v>
       </c>
       <c r="I7">
-        <v>0.1274106381683396</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J7">
-        <v>0.09709078547908703</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07122033333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N7">
-        <v>0.213661</v>
+        <v>8.276778</v>
       </c>
       <c r="O7">
-        <v>0.006457977190625621</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P7">
-        <v>0.00793634904023037</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q7">
-        <v>0.3201595420263333</v>
+        <v>1.916472771807</v>
       </c>
       <c r="R7">
-        <v>1.920957252158</v>
+        <v>11.498836630842</v>
       </c>
       <c r="S7">
-        <v>0.000822814995134191</v>
+        <v>0.00220431960820755</v>
       </c>
       <c r="T7">
-        <v>0.0007705463621521651</v>
+        <v>0.002228760698027812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J8">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.1122635</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N8">
-        <v>6.224527</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O8">
-        <v>0.2822077032432218</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P8">
-        <v>0.2312074682901326</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q8">
-        <v>1.441277815217167</v>
+        <v>1.395688682595777</v>
       </c>
       <c r="R8">
-        <v>8.647666891303</v>
+        <v>12.561198143362</v>
       </c>
       <c r="S8">
-        <v>0.003704106368372395</v>
+        <v>0.001605315752593986</v>
       </c>
       <c r="T8">
-        <v>0.003468806115654872</v>
+        <v>0.002434672796983216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J9">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.013819333333334</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N9">
-        <v>9.041458</v>
+        <v>0.014572</v>
       </c>
       <c r="O9">
-        <v>0.2732811768830042</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P9">
-        <v>0.3358411994729184</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q9">
-        <v>1.395688682595778</v>
+        <v>0.002249413256444444</v>
       </c>
       <c r="R9">
-        <v>12.561198143362</v>
+        <v>0.020244719308</v>
       </c>
       <c r="S9">
-        <v>0.003586941589529243</v>
+        <v>2.587266472597623E-06</v>
       </c>
       <c r="T9">
-        <v>0.005038626196791607</v>
+        <v>3.923930410077603E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J10">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01648566666666667</v>
+        <v>3.609679</v>
       </c>
       <c r="N10">
-        <v>0.049457</v>
+        <v>7.219358</v>
       </c>
       <c r="O10">
-        <v>0.001494854830393808</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P10">
-        <v>0.001837059708990754</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q10">
-        <v>0.007634451785888888</v>
+        <v>1.671629109410333</v>
       </c>
       <c r="R10">
-        <v>0.068710066073</v>
+        <v>10.029774656462</v>
       </c>
       <c r="S10">
-        <v>1.962065965393499E-05</v>
+        <v>0.001922701369792695</v>
       </c>
       <c r="T10">
-        <v>2.7561410539619E-05</v>
+        <v>0.001944019928454366</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J11">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.0507295</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N11">
-        <v>6.101459</v>
+        <v>0.000111</v>
       </c>
       <c r="O11">
-        <v>0.2766280443193008</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P11">
-        <v>0.226636158581374</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q11">
-        <v>1.412781645441833</v>
+        <v>1.713456433333333E-05</v>
       </c>
       <c r="R11">
-        <v>8.476689872651001</v>
+        <v>0.000154211079</v>
       </c>
       <c r="S11">
-        <v>0.003630870769499925</v>
+        <v>1.970810996831843E-08</v>
       </c>
       <c r="T11">
-        <v>0.003400222746823568</v>
+        <v>2.98899447926581E-08</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4630963333333333</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H12">
-        <v>1.389289</v>
+        <v>22.39811</v>
       </c>
       <c r="I12">
-        <v>0.01312546158663854</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J12">
-        <v>0.01500300202804008</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.763754333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N12">
-        <v>5.291263</v>
+        <v>8.276778</v>
       </c>
       <c r="O12">
-        <v>0.1599302435334539</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P12">
-        <v>0.1965417649063538</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q12">
-        <v>0.8167881646674444</v>
+        <v>30.89736401493001</v>
       </c>
       <c r="R12">
-        <v>7.351093482006999</v>
+        <v>185.38418408958</v>
       </c>
       <c r="S12">
-        <v>0.002099158268040096</v>
+        <v>0.0355380292075944</v>
       </c>
       <c r="T12">
-        <v>0.002948716497484603</v>
+        <v>0.03593206832999019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4630963333333333</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H13">
-        <v>1.389289</v>
+        <v>22.39811</v>
       </c>
       <c r="I13">
-        <v>0.01312546158663854</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J13">
-        <v>0.01500300202804008</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07122033333333333</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N13">
-        <v>0.213661</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O13">
-        <v>0.006457977190625621</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P13">
-        <v>0.00793634904023037</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q13">
-        <v>0.03298187522544444</v>
+        <v>22.50128564937555</v>
       </c>
       <c r="R13">
-        <v>0.296836877029</v>
+        <v>202.51157084438</v>
       </c>
       <c r="S13">
-        <v>8.476393154294445E-05</v>
+        <v>0.02588089217674139</v>
       </c>
       <c r="T13">
-        <v>0.0001190690607458102</v>
+        <v>0.03925178211361188</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H14">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I14">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J14">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.1122635</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N14">
-        <v>6.224527</v>
+        <v>0.014572</v>
       </c>
       <c r="O14">
-        <v>0.2822077032432218</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P14">
-        <v>0.2312074682901326</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q14">
-        <v>21.15809991462884</v>
+        <v>0.03626502876888889</v>
       </c>
       <c r="R14">
-        <v>126.948599487773</v>
+        <v>0.32638525892</v>
       </c>
       <c r="S14">
-        <v>0.05437664536911457</v>
+        <v>4.171189655467909E-05</v>
       </c>
       <c r="T14">
-        <v>0.05092241454395986</v>
+        <v>6.326158557165807E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H15">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I15">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J15">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.013819333333334</v>
+        <v>3.609679</v>
       </c>
       <c r="N15">
-        <v>9.041458</v>
+        <v>7.219358</v>
       </c>
       <c r="O15">
-        <v>0.2732811768830042</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P15">
-        <v>0.3358411994729184</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q15">
-        <v>20.48884696919356</v>
+        <v>26.94999576889667</v>
       </c>
       <c r="R15">
-        <v>184.399622722742</v>
+        <v>161.69997461338</v>
       </c>
       <c r="S15">
-        <v>0.05265665490574559</v>
+        <v>0.03099778143911559</v>
       </c>
       <c r="T15">
-        <v>0.07396752754993308</v>
+        <v>0.03134147913048547</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H16">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I16">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J16">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01648566666666667</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N16">
-        <v>0.049457</v>
+        <v>0.000111</v>
       </c>
       <c r="O16">
-        <v>0.001494854830393808</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P16">
-        <v>0.001837059708990754</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q16">
-        <v>0.1120745022047778</v>
+        <v>0.0002762433566666667</v>
       </c>
       <c r="R16">
-        <v>1.008670519843</v>
+        <v>0.00248619021</v>
       </c>
       <c r="S16">
-        <v>0.0002880332112003904</v>
+        <v>3.177340459490378E-07</v>
       </c>
       <c r="T16">
-        <v>0.000404604214280157</v>
+        <v>4.818855337945405E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.798299666666668</v>
+        <v>15.2071285</v>
       </c>
       <c r="H17">
-        <v>20.394899</v>
+        <v>30.414257</v>
       </c>
       <c r="I17">
-        <v>0.1926830655017586</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J17">
-        <v>0.2202455436260365</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.0507295</v>
+        <v>4.138389</v>
       </c>
       <c r="N17">
-        <v>6.101459</v>
+        <v>8.276778</v>
       </c>
       <c r="O17">
-        <v>0.2766280443193008</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P17">
-        <v>0.226636158581374</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q17">
-        <v>20.73977334294017</v>
+        <v>62.9330133059865</v>
       </c>
       <c r="R17">
-        <v>124.438640057641</v>
+        <v>251.732053223946</v>
       </c>
       <c r="S17">
-        <v>0.05330153958319923</v>
+        <v>0.07238530976006115</v>
       </c>
       <c r="T17">
-        <v>0.04991560395207135</v>
+        <v>0.04879193649508294</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.798299666666668</v>
+        <v>15.2071285</v>
       </c>
       <c r="H18">
-        <v>20.394899</v>
+        <v>30.414257</v>
       </c>
       <c r="I18">
-        <v>0.1926830655017586</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J18">
-        <v>0.2202455436260365</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.763754333333333</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N18">
-        <v>5.291263</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O18">
-        <v>0.1599302435334539</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P18">
-        <v>0.1965417649063538</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q18">
-        <v>11.99053049638189</v>
+        <v>45.83153787778432</v>
       </c>
       <c r="R18">
-        <v>107.914774467437</v>
+        <v>274.9892272667059</v>
       </c>
       <c r="S18">
-        <v>0.03081584959046871</v>
+        <v>0.0527152585231099</v>
       </c>
       <c r="T18">
-        <v>0.04328744785702057</v>
+        <v>0.0532997556004232</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.798299666666668</v>
+        <v>15.2071285</v>
       </c>
       <c r="H19">
-        <v>20.394899</v>
+        <v>30.414257</v>
       </c>
       <c r="I19">
-        <v>0.1926830655017586</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J19">
-        <v>0.2202455436260365</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.07122033333333333</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N19">
-        <v>0.213661</v>
+        <v>0.014572</v>
       </c>
       <c r="O19">
-        <v>0.006457977190625621</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P19">
-        <v>0.00793634904023037</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q19">
-        <v>0.4841771683598889</v>
+        <v>0.07386609216733334</v>
       </c>
       <c r="R19">
-        <v>4.357594515239001</v>
+        <v>0.443196553004</v>
       </c>
       <c r="S19">
-        <v>0.00124434284203018</v>
+        <v>8.496049499967347E-05</v>
       </c>
       <c r="T19">
-        <v>0.001747945508771511</v>
+        <v>8.590252132005336E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H20">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I20">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J20">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.1122635</v>
+        <v>3.609679</v>
       </c>
       <c r="N20">
-        <v>6.224527</v>
+        <v>7.219358</v>
       </c>
       <c r="O20">
-        <v>0.2822077032432218</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P20">
-        <v>0.2312074682901326</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q20">
-        <v>27.2347798744825</v>
+        <v>54.89285239675149</v>
       </c>
       <c r="R20">
-        <v>108.93911949793</v>
+        <v>219.571409587006</v>
       </c>
       <c r="S20">
-        <v>0.06999380723770499</v>
+        <v>0.06313754761801942</v>
       </c>
       <c r="T20">
-        <v>0.04369833952884112</v>
+        <v>0.04255840341148077</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H21">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I21">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J21">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>3.013819333333334</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N21">
-        <v>9.041458</v>
+        <v>0.000111</v>
       </c>
       <c r="O21">
-        <v>0.2732811768830042</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P21">
-        <v>0.3358411994729184</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q21">
-        <v>26.37331515303667</v>
+        <v>0.0005626637544999999</v>
       </c>
       <c r="R21">
-        <v>158.23989091822</v>
+        <v>0.003375982527</v>
       </c>
       <c r="S21">
-        <v>0.06777982952491068</v>
+        <v>6.471736854902384E-07</v>
       </c>
       <c r="T21">
-        <v>0.06347417265918467</v>
+        <v>6.54349428117343E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>35.389713</v>
+      </c>
+      <c r="H22">
+        <v>106.169139</v>
+      </c>
+      <c r="I22">
+        <v>0.4382630506626701</v>
+      </c>
+      <c r="J22">
+        <v>0.5052421883817986</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>8.750795</v>
-      </c>
-      <c r="H22">
-        <v>17.50159</v>
-      </c>
-      <c r="I22">
-        <v>0.2480223127622444</v>
-      </c>
-      <c r="J22">
-        <v>0.1890005537105138</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01648566666666667</v>
+        <v>4.138389</v>
       </c>
       <c r="N22">
-        <v>0.049457</v>
+        <v>8.276778</v>
       </c>
       <c r="O22">
-        <v>0.001494854830393808</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P22">
-        <v>0.001837059708990754</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q22">
-        <v>0.1442626894383333</v>
+        <v>146.456398992357</v>
       </c>
       <c r="R22">
-        <v>0.86557613663</v>
+        <v>878.738393954142</v>
       </c>
       <c r="S22">
-        <v>0.0003707573522780848</v>
+        <v>0.1684535866074034</v>
       </c>
       <c r="T22">
-        <v>0.0003472053021985278</v>
+        <v>0.1703213689496223</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.750795</v>
+        <v>35.389713</v>
       </c>
       <c r="H23">
-        <v>17.50159</v>
+        <v>106.169139</v>
       </c>
       <c r="I23">
-        <v>0.2480223127622444</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J23">
-        <v>0.1890005537105138</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.0507295</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N23">
-        <v>6.101459</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O23">
-        <v>0.2766280443193008</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P23">
-        <v>0.226636158581374</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q23">
-        <v>26.6963084549525</v>
+        <v>106.658201240518</v>
       </c>
       <c r="R23">
-        <v>106.78523381981</v>
+        <v>959.9238111646619</v>
       </c>
       <c r="S23">
-        <v>0.06860992732696962</v>
+        <v>0.1226778526829482</v>
       </c>
       <c r="T23">
-        <v>0.0428343594627035</v>
+        <v>0.1860571231777044</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.750795</v>
+        <v>35.389713</v>
       </c>
       <c r="H24">
-        <v>17.50159</v>
+        <v>106.169139</v>
       </c>
       <c r="I24">
-        <v>0.2480223127622444</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J24">
-        <v>0.1890005537105138</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>1.763754333333333</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N24">
-        <v>5.291263</v>
+        <v>0.014572</v>
       </c>
       <c r="O24">
-        <v>0.1599302435334539</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P24">
-        <v>0.1965417649063538</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q24">
-        <v>15.43425260136167</v>
+        <v>0.171899632612</v>
       </c>
       <c r="R24">
-        <v>92.60551560816999</v>
+        <v>1.547096693508</v>
       </c>
       <c r="S24">
-        <v>0.03966626888179622</v>
+        <v>0.0001977182960199474</v>
       </c>
       <c r="T24">
-        <v>0.0371465023945425</v>
+        <v>0.0002998658401051588</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.750795</v>
+        <v>35.389713</v>
       </c>
       <c r="H25">
-        <v>17.50159</v>
+        <v>106.169139</v>
       </c>
       <c r="I25">
-        <v>0.2480223127622444</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J25">
-        <v>0.1890005537105138</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.07122033333333333</v>
+        <v>3.609679</v>
       </c>
       <c r="N25">
-        <v>0.213661</v>
+        <v>7.219358</v>
       </c>
       <c r="O25">
-        <v>0.006457977190625621</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P25">
-        <v>0.00793634904023037</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q25">
-        <v>0.6232345368316666</v>
+        <v>127.745503832127</v>
       </c>
       <c r="R25">
-        <v>3.73940722099</v>
+        <v>766.473022992762</v>
       </c>
       <c r="S25">
-        <v>0.001601722438584788</v>
+        <v>0.1469323869871647</v>
       </c>
       <c r="T25">
-        <v>0.001499974363043445</v>
+        <v>0.1485615462318075</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H26">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I26">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J26">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>3.1122635</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N26">
-        <v>6.224527</v>
+        <v>0.000111</v>
       </c>
       <c r="O26">
-        <v>0.2822077032432218</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P26">
-        <v>0.2312074682901326</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q26">
-        <v>19.54261003773566</v>
+        <v>0.001309419381</v>
       </c>
       <c r="R26">
-        <v>117.255660226414</v>
+        <v>0.011784774429</v>
       </c>
       <c r="S26">
-        <v>0.05022481129669494</v>
+        <v>1.506089133832978E-06</v>
       </c>
       <c r="T26">
-        <v>0.04703432225142623</v>
+        <v>2.284182559132077E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.279227333333332</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H27">
-        <v>18.837682</v>
+        <v>15.949276</v>
       </c>
       <c r="I27">
-        <v>0.1779710855497396</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J27">
-        <v>0.2034290786507156</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.013819333333334</v>
+        <v>4.138389</v>
       </c>
       <c r="N27">
-        <v>9.041458</v>
+        <v>8.276778</v>
       </c>
       <c r="O27">
-        <v>0.2732811768830042</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P27">
-        <v>0.3358411994729184</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q27">
-        <v>18.92445673559511</v>
+        <v>22.001436118788</v>
       </c>
       <c r="R27">
-        <v>170.320110620356</v>
+        <v>132.008616712728</v>
       </c>
       <c r="S27">
-        <v>0.04863614771017866</v>
+        <v>0.02530596716990783</v>
       </c>
       <c r="T27">
-        <v>0.06831986578172698</v>
+        <v>0.02558655507298931</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.279227333333332</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H28">
-        <v>18.837682</v>
+        <v>15.949276</v>
       </c>
       <c r="I28">
-        <v>0.1779710855497396</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J28">
-        <v>0.2034290786507156</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01648566666666667</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N28">
-        <v>0.049457</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O28">
-        <v>0.001494854830393808</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P28">
-        <v>0.001837059708990754</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q28">
-        <v>0.1035172487415555</v>
+        <v>16.02274545382311</v>
       </c>
       <c r="R28">
-        <v>0.9316552386739999</v>
+        <v>144.204709084408</v>
       </c>
       <c r="S28">
-        <v>0.0002660409369044578</v>
+        <v>0.01842930017100055</v>
       </c>
       <c r="T28">
-        <v>0.0003737113640263408</v>
+        <v>0.02795046128543253</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.279227333333332</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H29">
-        <v>18.837682</v>
+        <v>15.949276</v>
       </c>
       <c r="I29">
-        <v>0.1779710855497396</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J29">
-        <v>0.2034290786507156</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>3.0507295</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N29">
-        <v>6.101459</v>
+        <v>0.014572</v>
       </c>
       <c r="O29">
-        <v>0.2766280443193008</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P29">
-        <v>0.226636158581374</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q29">
-        <v>19.15622406300633</v>
+        <v>0.02582364998577778</v>
       </c>
       <c r="R29">
-        <v>114.937344378038</v>
+        <v>0.232412849872</v>
       </c>
       <c r="S29">
-        <v>0.04923179334100743</v>
+        <v>2.970226285316153E-05</v>
       </c>
       <c r="T29">
-        <v>0.0461043849291464</v>
+        <v>4.504739410959194E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.279227333333332</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H30">
-        <v>18.837682</v>
+        <v>15.949276</v>
       </c>
       <c r="I30">
-        <v>0.1779710855497396</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J30">
-        <v>0.2034290786507156</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.763754333333333</v>
+        <v>3.609679</v>
       </c>
       <c r="N30">
-        <v>5.291263</v>
+        <v>7.219358</v>
       </c>
       <c r="O30">
-        <v>0.1599302435334539</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P30">
-        <v>0.1965417649063538</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q30">
-        <v>11.07501441915177</v>
+        <v>19.19058888080133</v>
       </c>
       <c r="R30">
-        <v>99.67512977236598</v>
+        <v>115.143533284808</v>
       </c>
       <c r="S30">
-        <v>0.02846295905388302</v>
+        <v>0.02207294149194426</v>
       </c>
       <c r="T30">
-        <v>0.03998231015128512</v>
+        <v>0.02231768220177295</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.279227333333332</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H31">
-        <v>18.837682</v>
+        <v>15.949276</v>
       </c>
       <c r="I31">
-        <v>0.1779710855497396</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J31">
-        <v>0.2034290786507156</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.07122033333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N31">
-        <v>0.213661</v>
+        <v>0.000111</v>
       </c>
       <c r="O31">
-        <v>0.006457977190625621</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P31">
-        <v>0.00793634904023037</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q31">
-        <v>0.4472086637557777</v>
+        <v>0.0001967077373333333</v>
       </c>
       <c r="R31">
-        <v>4.024877973801999</v>
+        <v>0.001770369636</v>
       </c>
       <c r="S31">
-        <v>0.001149333211071099</v>
+        <v>2.262524826174121E-07</v>
       </c>
       <c r="T31">
-        <v>0.001614484173104555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>8.495532000000001</v>
-      </c>
-      <c r="H32">
-        <v>25.486596</v>
-      </c>
-      <c r="I32">
-        <v>0.2407874364312792</v>
-      </c>
-      <c r="J32">
-        <v>0.275231036505607</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3.1122635</v>
-      </c>
-      <c r="N32">
-        <v>6.224527</v>
-      </c>
-      <c r="O32">
-        <v>0.2822077032432218</v>
-      </c>
-      <c r="P32">
-        <v>0.2312074682901326</v>
-      </c>
-      <c r="Q32">
-        <v>26.440334156682</v>
-      </c>
-      <c r="R32">
-        <v>158.642004940092</v>
-      </c>
-      <c r="S32">
-        <v>0.06795206940509456</v>
-      </c>
-      <c r="T32">
-        <v>0.06363547114533046</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>8.495532000000001</v>
-      </c>
-      <c r="H33">
-        <v>25.486596</v>
-      </c>
-      <c r="I33">
-        <v>0.2407874364312792</v>
-      </c>
-      <c r="J33">
-        <v>0.275231036505607</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>3.013819333333334</v>
-      </c>
-      <c r="N33">
-        <v>9.041458</v>
-      </c>
-      <c r="O33">
-        <v>0.2732811768830042</v>
-      </c>
-      <c r="P33">
-        <v>0.3358411994729184</v>
-      </c>
-      <c r="Q33">
-        <v>25.60399858855201</v>
-      </c>
-      <c r="R33">
-        <v>230.435987296968</v>
-      </c>
-      <c r="S33">
-        <v>0.06580267400658153</v>
-      </c>
-      <c r="T33">
-        <v>0.09243392143221763</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>8.495532000000001</v>
-      </c>
-      <c r="H34">
-        <v>25.486596</v>
-      </c>
-      <c r="I34">
-        <v>0.2407874364312792</v>
-      </c>
-      <c r="J34">
-        <v>0.275231036505607</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.01648566666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.049457</v>
-      </c>
-      <c r="O34">
-        <v>0.001494854830393808</v>
-      </c>
-      <c r="P34">
-        <v>0.001837059708990754</v>
-      </c>
-      <c r="Q34">
-        <v>0.140054508708</v>
-      </c>
-      <c r="R34">
-        <v>1.260490578372</v>
-      </c>
-      <c r="S34">
-        <v>0.0003599422624474396</v>
-      </c>
-      <c r="T34">
-        <v>0.0005056158478282138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>8.495532000000001</v>
-      </c>
-      <c r="H35">
-        <v>25.486596</v>
-      </c>
-      <c r="I35">
-        <v>0.2407874364312792</v>
-      </c>
-      <c r="J35">
-        <v>0.275231036505607</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>3.0507295</v>
-      </c>
-      <c r="N35">
-        <v>6.101459</v>
-      </c>
-      <c r="O35">
-        <v>0.2766280443193008</v>
-      </c>
-      <c r="P35">
-        <v>0.226636158581374</v>
-      </c>
-      <c r="Q35">
-        <v>25.917570090594</v>
-      </c>
-      <c r="R35">
-        <v>155.505420543564</v>
-      </c>
-      <c r="S35">
-        <v>0.06660855763664271</v>
-      </c>
-      <c r="T35">
-        <v>0.06237730483600069</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>8.495532000000001</v>
-      </c>
-      <c r="H36">
-        <v>25.486596</v>
-      </c>
-      <c r="I36">
-        <v>0.2407874364312792</v>
-      </c>
-      <c r="J36">
-        <v>0.275231036505607</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.763754333333333</v>
-      </c>
-      <c r="N36">
-        <v>5.291263</v>
-      </c>
-      <c r="O36">
-        <v>0.1599302435334539</v>
-      </c>
-      <c r="P36">
-        <v>0.1965417649063538</v>
-      </c>
-      <c r="Q36">
-        <v>14.984031378972</v>
-      </c>
-      <c r="R36">
-        <v>134.856282410748</v>
-      </c>
-      <c r="S36">
-        <v>0.03850919334825053</v>
-      </c>
-      <c r="T36">
-        <v>0.0540943936718171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>8.495532000000001</v>
-      </c>
-      <c r="H37">
-        <v>25.486596</v>
-      </c>
-      <c r="I37">
-        <v>0.2407874364312792</v>
-      </c>
-      <c r="J37">
-        <v>0.275231036505607</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.07122033333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.213661</v>
-      </c>
-      <c r="O37">
-        <v>0.006457977190625621</v>
-      </c>
-      <c r="P37">
-        <v>0.00793634904023037</v>
-      </c>
-      <c r="Q37">
-        <v>0.605054620884</v>
-      </c>
-      <c r="R37">
-        <v>5.445491587956</v>
-      </c>
-      <c r="S37">
-        <v>0.001554999772262418</v>
-      </c>
-      <c r="T37">
-        <v>0.002184329572412884</v>
+        <v>3.431416927096284E-07</v>
       </c>
     </row>
   </sheetData>
